--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Réal/Pierre_Réal.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Réal/Pierre_Réal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_R%C3%A9al</t>
+          <t>Pierre_Réal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Réal, né le 9 juin 1922 à Grenoble et mort le 13 décembre 2009 à Caluire-et-Cuire[1], est un entomologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Réal, né le 9 juin 1922 à Grenoble et mort le 13 décembre 2009 à Caluire-et-Cuire, est un entomologiste français.
 Il est spécialisé dans les lépidoptères.
-Il est professeur à la faculté de Besançon[2].
+Il est professeur à la faculté de Besançon.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_R%C3%A9al</t>
+          <t>Pierre_Réal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son travail le plus connu est le livre qu'il a écrit avec Le Moult sur le genre Morpho, publié en supplément à la revue Novitates Entomologicae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son travail le plus connu est le livre qu'il a écrit avec Le Moult sur le genre Morpho, publié en supplément à la revue Novitates Entomologicae.
 Parmi ses autres publications on peut citer :
 Les lépidoptères rhopalocères du Vercors et du Sud-Ouest de Grenoble, 1945-1946. Bulletin de la Société Linnéenne de Lyon, 14(5), 14(10) &amp; 15(1-2)
 Famille des Gracillaridae (= Lithocolletidae) avec A. S. Balachowsky, 1972. in: Entomologie appliquée à l'agriculture, 2 (Lépidoptères), pp. 309–335
 Les lépidoptères holarctiques des tourbières jurassiennes françaises et leur signification biogéographique, Comptes rendus de l'Académie des Sciences, Paris, 1975, pp. 1611–1614
-Une liste de 29 autres travaux est donnée par J. C. Robert[4].
+Une liste de 29 autres travaux est donnée par J. C. Robert.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_R%C3%A9al</t>
+          <t>Pierre_Réal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,71 +563,73 @@
           <t>Genres, espèces et variétés décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anoplocnephasia, 1953[5]
-Brachycnephasia, 1953[6]
-Cnephasia alternella interjunctana, 1953[7]
-Cnephasia alternella parvana, 1953[7]
-Cnephasia alternella peyerimhoffi, 1953[7]
-Cnephasia alternella pseudochrysantheana, 1953[7]
-Cnephasia alternella rectilinea, 1953[7]
-Cnephasia alternella siennicolor, 1953[7]
-Cnephasia alternella vulgaris, 1953[7]
-Cnephasia alticola decaryi, 1953[8]
-Cnephasia alticola juncta, 1953[8]
-Cnephasia bizensis, 1953[9]
-Cnephasia canescana griseana, 1953[10]
-Cnephasia canescana grisescana, 1953[11]
-Cnephasia canescana montserrati, 1953[12]
-Cnephasia canescana venansoni, 1953[12]
-Cnephasia communana caprionica', 1953[8]
-Cnephasia communana lucia', 1953[8]
-Cnephasia communana pseudorthoxyana, 1953[8]
-Cnephasia communana seminigra, 1953[8]
-Cnephasia conspersana albicans, 1953[9]
-Cnephasia conspersana gallicana, 1953[9]
-Cnephasia conspersana pseudoalternella, 1953[8]
-Cnephasia cottiana buvati, 1953[12]
-Cnephasia cottiana pyrenaea, 1953[12]
-Cnephasia ecullyana, 1951[13]
-Cnephasia incanana infuscata, 1953[14]
-Cnephasia interjecta confluens, 1952[15]
-Cnephasia interjecta mediocris, 1953[8]
-Cnephasia joannisis dumonti, 1953[12]
-Cnephasia legrandi, 1953[12]
-Cnephasia longana minor, 1953[9]
-Cnephasia obsoletana algerana, 1953[10]
-Cnephasia obsoletana cleuana, 1952[16]
-Cnephasia obsoletana pseudotypica, 1952[17]
-Cnephasia orthoxyana, 1951[18]
-Cnephasia orthoxyana confluentana, 1951[19]
-Cnephasia orthoxyana reducta, 1951[19]
-Cnephasia orthoxyana styx, 1951[19]
-Cnephasia osseana alpicola, 1953[11]
-Cnephasia osseana alpicolana, 1953[10]
-Cnephasia osseana borreoni, 1953[11]
-Cnephasia osseana pratana, 1953[11]
-Cnephasia osseana pseudolongana, 1953[11]
-Cnephasia osseana solfatarana, 1953[11]
-Cnephasia pascuana pseudocommuana, 1953[6]
-Cnephasia penziana alpestris, 1953[14]
-Cnephasia penziana clarana, 1953[20]
-Cnephasia penziana livonica, 1953[21]
-Cnephasia rielana', 1951[22]
-Cnephasia sedana mediterranea, 1953[10]
-Cnephasia sedana meridionalis, 1952[23]
-Cnephasia wilkinsoni', 1952[23]
-Cnephasia wilkinsoni directana, 1953[7]
-Coccidiphila charlierella, 1988[24]
-Eana cyanescana, 1953[14]
-Eana filipjevi, 1953[11]
-Eana viardi, 1953[14]
-Hypostephanuncia, 1951[25]
-Leptidea lorkovicci, 1988[26], devenu Leptidea reali Reissinger, 1989
-Micopterix liogierella, 1988[27],[28]
-Micopterix vallebonella, 1988[27]
+Anoplocnephasia, 1953
+Brachycnephasia, 1953
+Cnephasia alternella interjunctana, 1953
+Cnephasia alternella parvana, 1953
+Cnephasia alternella peyerimhoffi, 1953
+Cnephasia alternella pseudochrysantheana, 1953
+Cnephasia alternella rectilinea, 1953
+Cnephasia alternella siennicolor, 1953
+Cnephasia alternella vulgaris, 1953
+Cnephasia alticola decaryi, 1953
+Cnephasia alticola juncta, 1953
+Cnephasia bizensis, 1953
+Cnephasia canescana griseana, 1953
+Cnephasia canescana grisescana, 1953
+Cnephasia canescana montserrati, 1953
+Cnephasia canescana venansoni, 1953
+Cnephasia communana caprionica', 1953
+Cnephasia communana lucia', 1953
+Cnephasia communana pseudorthoxyana, 1953
+Cnephasia communana seminigra, 1953
+Cnephasia conspersana albicans, 1953
+Cnephasia conspersana gallicana, 1953
+Cnephasia conspersana pseudoalternella, 1953
+Cnephasia cottiana buvati, 1953
+Cnephasia cottiana pyrenaea, 1953
+Cnephasia ecullyana, 1951
+Cnephasia incanana infuscata, 1953
+Cnephasia interjecta confluens, 1952
+Cnephasia interjecta mediocris, 1953
+Cnephasia joannisis dumonti, 1953
+Cnephasia legrandi, 1953
+Cnephasia longana minor, 1953
+Cnephasia obsoletana algerana, 1953
+Cnephasia obsoletana cleuana, 1952
+Cnephasia obsoletana pseudotypica, 1952
+Cnephasia orthoxyana, 1951
+Cnephasia orthoxyana confluentana, 1951
+Cnephasia orthoxyana reducta, 1951
+Cnephasia orthoxyana styx, 1951
+Cnephasia osseana alpicola, 1953
+Cnephasia osseana alpicolana, 1953
+Cnephasia osseana borreoni, 1953
+Cnephasia osseana pratana, 1953
+Cnephasia osseana pseudolongana, 1953
+Cnephasia osseana solfatarana, 1953
+Cnephasia pascuana pseudocommuana, 1953
+Cnephasia penziana alpestris, 1953
+Cnephasia penziana clarana, 1953
+Cnephasia penziana livonica, 1953
+Cnephasia rielana', 1951
+Cnephasia sedana mediterranea, 1953
+Cnephasia sedana meridionalis, 1952
+Cnephasia wilkinsoni', 1952
+Cnephasia wilkinsoni directana, 1953
+Coccidiphila charlierella, 1988
+Eana cyanescana, 1953
+Eana filipjevi, 1953
+Eana viardi, 1953
+Hypostephanuncia, 1951
+Leptidea lorkovicci, 1988, devenu Leptidea reali Reissinger, 1989
+Micopterix liogierella, 1988,
+Micopterix vallebonella, 1988
 </t>
         </is>
       </c>
@@ -624,7 +640,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_R%C3%A9al</t>
+          <t>Pierre_Réal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,9 +658,11 @@
           <t>Espèce nommée d'après lui</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Leptidea reali Reissinger, 1989[29],[30]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Leptidea reali Reissinger, 1989,</t>
         </is>
       </c>
     </row>
